--- a/EnvNP_Vietnam.xlsx
+++ b/EnvNP_Vietnam.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuvvvvv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{394861B0-2606-EB42-86D4-3163B5FAB406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAAA635-2627-6142-BD6E-8185BCFBAB32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8700" yWindow="1020" windowWidth="27640" windowHeight="15320" xr2:uid="{2E6BFAEE-7E90-DF4C-9E37-85148123795F}"/>
+    <workbookView xWindow="1160" yWindow="1000" windowWidth="27640" windowHeight="15320" xr2:uid="{2E6BFAEE-7E90-DF4C-9E37-85148123795F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="89">
   <si>
     <t>GreenID Innovation and Development Centre (GreenID)</t>
   </si>
@@ -379,12 +379,42 @@
   <si>
     <t>Yes - government and businesses</t>
   </si>
+  <si>
+    <t>Name of organisation</t>
+  </si>
+  <si>
+    <t>Description of organisation</t>
+  </si>
+  <si>
+    <t>Mission/ Objectives/ Purpose</t>
+  </si>
+  <si>
+    <t>Programmes/ projects</t>
+  </si>
+  <si>
+    <t>Funding sources</t>
+  </si>
+  <si>
+    <t>Collaboration with government / businesses</t>
+  </si>
+  <si>
+    <t>Choice of Climate action</t>
+  </si>
+  <si>
+    <t>No. of employees</t>
+  </si>
+  <si>
+    <t>Geographical focus</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -406,13 +436,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -427,12 +469,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -749,70 +794,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED609F3-8349-DF40-852B-DE102AC151D1}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J15"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="57" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2">
-        <v>33</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>8</v>
@@ -821,21 +866,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>15</v>
@@ -844,7 +889,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="2">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>8</v>
@@ -855,81 +900,81 @@
     </row>
     <row r="4" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2">
         <v>21</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2">
-        <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="2">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>31</v>
@@ -938,10 +983,10 @@
         <v>6</v>
       </c>
       <c r="H6" s="2">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>9</v>
@@ -949,92 +994,92 @@
     </row>
     <row r="7" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="2">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>43</v>
+      <c r="A8" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="2">
         <v>7</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>48</v>
+      <c r="A9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="2">
-        <v>10</v>
+      <c r="H9" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>8</v>
@@ -1045,28 +1090,28 @@
     </row>
     <row r="10" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="2">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>8</v>
@@ -1077,26 +1122,28 @@
     </row>
     <row r="11" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H11" s="2">
-        <v>168</v>
+        <v>16</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>8</v>
@@ -1107,28 +1154,26 @@
     </row>
     <row r="12" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="2">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>8</v>
@@ -1139,28 +1184,28 @@
     </row>
     <row r="13" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="2">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>8</v>
@@ -1171,28 +1216,28 @@
     </row>
     <row r="14" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H14" s="2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>8</v>
@@ -1203,28 +1248,28 @@
     </row>
     <row r="15" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>7</v>
+      <c r="H15" s="2">
+        <v>30</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>8</v>
@@ -1233,22 +1278,54 @@
         <v>9</v>
       </c>
     </row>
+    <row r="16" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" xr:uid="{65DA858D-4744-FB48-A48B-E32347CE0C66}"/>
-    <hyperlink ref="A2" r:id="rId2" xr:uid="{3BAEECA0-2A3A-214A-AFD6-12FB1CCD81ED}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{0BC8FE61-4EAB-A946-B09A-C0364EE5EA62}"/>
-    <hyperlink ref="A4" r:id="rId4" xr:uid="{F135802B-2F07-AF4A-A8F2-8B1257987709}"/>
-    <hyperlink ref="A5" r:id="rId5" xr:uid="{BCB3A1E1-23D5-6D41-83F7-F25C5A1D1699}"/>
-    <hyperlink ref="A6" r:id="rId6" xr:uid="{99301CB0-5B92-844E-8426-DA978E0D36C1}"/>
-    <hyperlink ref="A7" r:id="rId7" xr:uid="{1E3D4AE9-6C18-5D4E-9FFD-0D0B8BC71610}"/>
-    <hyperlink ref="A9" r:id="rId8" xr:uid="{20DFAEE9-9067-DD47-95D0-9E72AE0A4EB2}"/>
-    <hyperlink ref="A10" r:id="rId9" xr:uid="{0F0F9E43-B30E-1944-8A66-84BC1BE324C5}"/>
-    <hyperlink ref="A11" r:id="rId10" xr:uid="{07D841F8-9999-0944-81FA-B2CED7D0AC84}"/>
-    <hyperlink ref="A12" r:id="rId11" xr:uid="{B7ED3214-AB23-8842-BD49-1B9C6C9502E7}"/>
-    <hyperlink ref="A13" r:id="rId12" xr:uid="{467D18A4-A48C-BE4A-BAF0-E451E7B55978}"/>
-    <hyperlink ref="A14" r:id="rId13" xr:uid="{73391F58-9237-8D47-8AC8-39AAE59EECAD}"/>
-    <hyperlink ref="A15" r:id="rId14" xr:uid="{0E579B67-EC00-E14A-8F26-490FB3B6B7B0}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{65DA858D-4744-FB48-A48B-E32347CE0C66}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{3BAEECA0-2A3A-214A-AFD6-12FB1CCD81ED}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{0BC8FE61-4EAB-A946-B09A-C0364EE5EA62}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{F135802B-2F07-AF4A-A8F2-8B1257987709}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{BCB3A1E1-23D5-6D41-83F7-F25C5A1D1699}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{99301CB0-5B92-844E-8426-DA978E0D36C1}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{1E3D4AE9-6C18-5D4E-9FFD-0D0B8BC71610}"/>
+    <hyperlink ref="A10" r:id="rId8" xr:uid="{20DFAEE9-9067-DD47-95D0-9E72AE0A4EB2}"/>
+    <hyperlink ref="A11" r:id="rId9" xr:uid="{0F0F9E43-B30E-1944-8A66-84BC1BE324C5}"/>
+    <hyperlink ref="A12" r:id="rId10" xr:uid="{07D841F8-9999-0944-81FA-B2CED7D0AC84}"/>
+    <hyperlink ref="A13" r:id="rId11" xr:uid="{B7ED3214-AB23-8842-BD49-1B9C6C9502E7}"/>
+    <hyperlink ref="A14" r:id="rId12" xr:uid="{467D18A4-A48C-BE4A-BAF0-E451E7B55978}"/>
+    <hyperlink ref="A15" r:id="rId13" xr:uid="{73391F58-9237-8D47-8AC8-39AAE59EECAD}"/>
+    <hyperlink ref="A16" r:id="rId14" xr:uid="{0E579B67-EC00-E14A-8F26-490FB3B6B7B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
